--- a/files/bca2018_import_tmp.xlsx
+++ b/files/bca2018_import_tmp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>SERIAL</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>614524396</t>
+  </si>
+  <si>
+    <t>VIP CODE</t>
   </si>
 </sst>
 </file>
@@ -293,8 +296,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -590,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +643,7 @@
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,8 +686,11 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>202959</v>
       </c>
@@ -688,7 +722,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>76004</v>
       </c>
@@ -722,7 +756,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>77597</v>
       </c>
@@ -758,7 +792,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>205529</v>
       </c>
@@ -790,7 +824,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>146308</v>
       </c>
@@ -820,7 +854,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>179058</v>
       </c>
@@ -852,7 +886,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>114123</v>
       </c>
@@ -886,7 +920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>203001</v>
       </c>
@@ -918,7 +952,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>160</v>
       </c>
@@ -952,7 +986,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>205531</v>
       </c>
